--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_06_end.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_06_end.xlsx
@@ -856,7 +856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Carol"]   "Only those who fear not sacrifice and possess the true, dauntless bloodline of Kazimierz may open the path."
+    <t xml:space="preserve">[name="Carol"]   'Only those who fear not sacrifice and possess the true, dauntless bloodline of Kazimierz may open the path.'
 </t>
   </si>
   <si>
@@ -948,7 +948,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   Clear \ Visibility: 12 km 
+    <t xml:space="preserve">[name=""]   Clear \ Visibility: 12 km 
 </t>
   </si>
   <si>
@@ -956,11 +956,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="\"Captain\""]  You bunch... How dare you show your faces here!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="\"Captain\""]  Assemble! Everyone, get over here!
+    <t xml:space="preserve">[name="'Captain'"]  You bunch... How dare you show your faces here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="'Captain'"]  Assemble! Everyone, get over here!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_06_end.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_06_end.xlsx
@@ -972,7 +972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Grani"]   As a matter of fact, if you were here earlier, we wouldn’t have even needed to hire other people to help the villagers.
+    <t xml:space="preserve">[name="Grani"]   As a matter of fact, if you were here earlier, we wouldn't have even needed to hire other people to help the villagers.
 </t>
   </si>
   <si>
@@ -1124,11 +1124,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]   …
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]   I’m glad to hear that.
+    <t xml:space="preserve">[name="???"]   ...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]   I'm glad to hear that.
 </t>
   </si>
   <si>
